--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2770.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2770.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165889545345772</v>
+        <v>1.526080131530762</v>
       </c>
       <c r="B1">
-        <v>2.426597895222354</v>
+        <v>1.829545497894287</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.452124357223511</v>
       </c>
       <c r="D1">
-        <v>2.370134342923633</v>
+        <v>4.997652530670166</v>
       </c>
       <c r="E1">
-        <v>1.228186858970146</v>
+        <v>1.222767233848572</v>
       </c>
     </row>
   </sheetData>
